--- a/public/assets/import-excel/format-student.xlsx
+++ b/public/assets/import-excel/format-student.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Pembayaran-SPP\public\assets\import-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A4A498-20F0-4941-B7F1-FB061521C123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04663B4-C705-48FD-A6E9-48ABF71F920E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="1332" windowWidth="19056" windowHeight="10908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1332" windowWidth="19056" windowHeight="10908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>No</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>RPL C</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Telp</t>
+  </si>
+  <si>
+    <t>contoh isi telp semisal no +62 889899 jadi 889899</t>
   </si>
 </sst>
 </file>
@@ -456,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="L4" sqref="L4:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,9 +480,10 @@
     <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -498,8 +508,14 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -524,15 +540,21 @@
       <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="I2">
+        <v>1234</v>
+      </c>
+      <c r="J2">
+        <v>81234567890</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -557,8 +579,14 @@
       <c r="H3" t="s">
         <v>10</v>
       </c>
+      <c r="I3">
+        <v>1234</v>
+      </c>
+      <c r="J3">
+        <v>81234567890</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -583,10 +611,24 @@
       <c r="H4" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="I4">
+        <v>1234</v>
+      </c>
+      <c r="J4">
+        <v>81234567890</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="K2:O2"/>
+  <mergeCells count="2">
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="L4:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
